--- a/Evaluation/Results.xlsx
+++ b/Evaluation/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Abindu's PC\CSCE-670---COURSE-PROJECT\src\tmp\ndcg testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598D2D4B-3A70-493A-A182-3B40A8C27B29}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF8C34C7-5EE4-4751-813E-16A5057656DB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{947E89D5-9B69-40BB-8F2C-27E65D2BDB3D}"/>
   </bookViews>
@@ -25,33 +25,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>RANKSVMPCA10</t>
   </si>
   <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>NDCG</t>
-  </si>
-  <si>
     <t>Random1</t>
   </si>
   <si>
     <t>Random2</t>
   </si>
   <si>
-    <t>Graph10</t>
-  </si>
-  <si>
-    <t>Graph100</t>
-  </si>
-  <si>
-    <t>Basic Features</t>
-  </si>
-  <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>Basic + Cosine + Word Embeddings</t>
+  </si>
+  <si>
+    <t>RankSVMGraphFeatures100WithEmbeddingsallBasic</t>
+  </si>
+  <si>
+    <t>RankSVMAllFeaturesWithAllEmbeddingsBasic</t>
+  </si>
+  <si>
+    <t>Basic + Cosine only(0.1)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>NDCG(basic)</t>
+  </si>
+  <si>
+    <t>NDCG(best)</t>
+  </si>
+  <si>
+    <t>Graph10 only</t>
+  </si>
+  <si>
+    <t>Graph100 only</t>
+  </si>
+  <si>
+    <t>Basic Features only</t>
+  </si>
+  <si>
+    <t>RankSVMGraphFeatures100WithEmbeddings6Basic</t>
+  </si>
+  <si>
+    <t>RankSVMAllFeaturesWithEmbeddings6Basic</t>
+  </si>
+  <si>
+    <t>RankSVMAllFeaturesWithEmbeddings8Basic</t>
   </si>
 </sst>
 </file>
@@ -67,8 +91,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="48"/>
-      <color theme="4"/>
+      <sz val="24"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -83,13 +106,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -106,17 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,73 +449,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00740F7F-CA15-42F8-86D2-E1B3B271C354}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="36.05078125" customWidth="1"/>
-    <col min="2" max="2" width="41.41796875" customWidth="1"/>
+    <col min="1" max="1" width="42.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.9453125" customWidth="1"/>
+    <col min="3" max="3" width="25.47265625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="62.7" customHeight="1" x14ac:dyDescent="2.2000000000000002">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="33.299999999999997" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C2" s="1">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="C3" s="1">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="1">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.315465</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.315465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.25595800000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.25595800000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.28906500000000002</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.28906500000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.30103000000000002</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.35620000000000002</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.25595800000000002</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.25595800000000002</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.231378</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.315465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.25595800000000002</v>
-      </c>
+      <c r="B14" s="1">
+        <v>0.63090000000000002</v>
+      </c>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
